--- a/StoreManagement/wwwroot/Uploads/Units.xlsx
+++ b/StoreManagement/wwwroot/Uploads/Units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khacc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7D5E74-1967-4476-9FFB-C5EDEDC30937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67EB101-5CB6-41FA-8FBE-921DA4E8AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>UnitName</t>
   </si>
@@ -31,13 +28,25 @@
     <t>Description</t>
   </si>
   <si>
-    <t>fasd</t>
-  </si>
-  <si>
-    <t>fdas</t>
-  </si>
-  <si>
-    <t>dfs</t>
+    <t>UnitCode</t>
+  </si>
+  <si>
+    <t>Chiếc</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Dàn</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Cặp</t>
+  </si>
+  <si>
+    <t>Bộ</t>
   </si>
   <si>
     <t>u001</t>
@@ -52,28 +61,7 @@
     <t>u004</t>
   </si>
   <si>
-    <t>Db</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Lo</t>
-  </si>
-  <si>
-    <t>nfasdf</t>
-  </si>
-  <si>
     <t>u005</t>
-  </si>
-  <si>
-    <t>u006</t>
-  </si>
-  <si>
-    <t>u007</t>
-  </si>
-  <si>
-    <t>u008</t>
   </si>
 </sst>
 </file>
@@ -426,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F580F976-62D0-4CF3-A01D-CFB2A8C94936}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,43 +427,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -483,57 +471,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
